--- a/DataSource/CapturaRIP.xlsx
+++ b/DataSource/CapturaRIP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyectos\Ranorex\IQDOC_Sanitas\IQDOC_Sanitas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dgomeza\Documents\Ranorex\Git\IQDocOK\DataSource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00480036-F876-4B99-A40B-D88189C4ABE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35998C89-BF17-41A1-B82E-C3E9F8F3790F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,22 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
   <si>
     <t>NitIPS</t>
   </si>
@@ -58,9 +69,6 @@
   </si>
   <si>
     <t>Plan Contributivo</t>
-  </si>
-  <si>
-    <t>Cuentas Medicas Recobrables</t>
   </si>
   <si>
     <t>select so.CodigoPrestador
@@ -104,6 +112,48 @@
   </si>
   <si>
     <t>3-849</t>
+  </si>
+  <si>
+    <t>900657491 - IPS BEST HOME CARE SAS</t>
+  </si>
+  <si>
+    <t>FEOC4439</t>
+  </si>
+  <si>
+    <t>AV 1 15 - 43 OF 801 ED CENTRO MEDICO DE ESPECIALISTAS JERICO CUCUTA</t>
+  </si>
+  <si>
+    <t>Sucursal</t>
+  </si>
+  <si>
+    <t>FechaFactura</t>
+  </si>
+  <si>
+    <t>Periodo</t>
+  </si>
+  <si>
+    <t>08312020</t>
+  </si>
+  <si>
+    <t>08252020</t>
+  </si>
+  <si>
+    <t>ValBruto</t>
+  </si>
+  <si>
+    <t>555000</t>
+  </si>
+  <si>
+    <t>Prefijo</t>
+  </si>
+  <si>
+    <t>FEO</t>
+  </si>
+  <si>
+    <t>TipHonorario</t>
+  </si>
+  <si>
+    <t>HC -- HONORARIO CONSULTORIO</t>
   </si>
 </sst>
 </file>
@@ -203,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -217,6 +267,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="47" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,11 +655,11 @@
       <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
@@ -618,7 +670,7 @@
         <v>860002541</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>10</v>
@@ -626,11 +678,11 @@
       <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
+      <c r="E3" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
@@ -641,7 +693,7 @@
         <v>900371613</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>10</v>
@@ -649,11 +701,11 @@
       <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>12</v>
+      <c r="E4" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
         <v>7</v>
@@ -664,7 +716,7 @@
         <v>900371613</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>10</v>
@@ -676,7 +728,7 @@
         <v>8</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
         <v>7</v>
@@ -687,7 +739,7 @@
         <v>900371613</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>10</v>
@@ -699,7 +751,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
         <v>7</v>
@@ -725,7 +777,7 @@
   <sheetData>
     <row r="2" spans="3:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -735,12 +787,96 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>